--- a/Excel/AIConfig.xlsx
+++ b/Excel/AIConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\weijingHot\trunk_et_weijing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5155364F-90EE-45B9-9FCD-90A7BA7DAB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5ADDAA-725D-4AEA-BCF7-636B3F3EE006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="525" windowWidth="28935" windowHeight="13785" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="AIConfig_3" sheetId="8" r:id="rId3"/>
     <sheet name="AIConfig_4" sheetId="9" r:id="rId4"/>
     <sheet name="AIConfig_5" sheetId="10" r:id="rId5"/>
+    <sheet name="AIConfig_6" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="47">
   <si>
     <t>cs</t>
   </si>
@@ -168,13 +169,48 @@
   <si>
     <t>AI_Retreat</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#战场兵线1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI_Target</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标点</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI_Attack</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>9990,34,0</t>
+  </si>
+  <si>
+    <t>NodeParams</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI_Transfer</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换AI</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +260,11 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -254,7 +295,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -266,6 +307,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -544,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="A1:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1238,4 +1291,213 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AD5B96-31AE-4682-809D-7C33BC6C0138}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="9" style="9"/>
+    <col min="4" max="4" width="17" style="9" customWidth="1"/>
+    <col min="5" max="5" width="9" style="9"/>
+    <col min="6" max="6" width="20.875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="19.25" style="9" customWidth="1"/>
+    <col min="8" max="8" width="30.125" style="9" customWidth="1"/>
+    <col min="9" max="10" width="9" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="7">
+        <v>601</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="7">
+        <v>602</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="7">
+        <v>603</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>3</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="7">
+        <v>604</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>4</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel/AIConfig.xlsx
+++ b/Excel/AIConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5ADDAA-725D-4AEA-BCF7-636B3F3EE006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C3EE3D-66B1-4FBE-97F8-6D82C141E49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" tabRatio="809" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -191,9 +191,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>9990,34,0</t>
-  </si>
-  <si>
     <t>NodeParams</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -203,6 +200,10 @@
   </si>
   <si>
     <t>转换AI</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>9990,34,0</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1298,7 +1299,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1378,7 +1379,7 @@
         <v>34</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I4" s="8"/>
     </row>
@@ -1424,7 +1425,7 @@
         <v>40</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I6" s="8"/>
     </row>
@@ -1446,9 +1447,7 @@
       <c r="G7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
+      <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
@@ -1485,10 +1484,10 @@
         <v>4</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="H9" s="8">
         <v>1</v>

--- a/Excel/AIConfig.xlsx
+++ b/Excel/AIConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C3EE3D-66B1-4FBE-97F8-6D82C141E49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC23BDDE-84D8-4AC7-901E-C43D2A4B6A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" tabRatio="809" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -264,6 +264,8 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -599,7 +601,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="A1:I9"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1299,7 +1301,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1413,7 +1415,7 @@
         <v>601</v>
       </c>
       <c r="D6" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E6" s="7">
         <v>1</v>
@@ -1436,7 +1438,7 @@
         <v>602</v>
       </c>
       <c r="D7" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E7" s="7">
         <v>2</v>
@@ -1457,7 +1459,7 @@
         <v>603</v>
       </c>
       <c r="D8" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E8" s="7">
         <v>3</v>
@@ -1478,7 +1480,7 @@
         <v>604</v>
       </c>
       <c r="D9" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E9" s="7">
         <v>4</v>

--- a/Excel/AIConfig.xlsx
+++ b/Excel/AIConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC23BDDE-84D8-4AC7-901E-C43D2A4B6A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F32185A-ACB1-41C1-B60A-429A8E135AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-510" yWindow="1125" windowWidth="27810" windowHeight="12315" tabRatio="809" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="48">
   <si>
     <t>cs</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>int[]</t>
   </si>
   <si>
     <t>攻击</t>
@@ -203,7 +200,15 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>9990,34,0</t>
+    <t>string</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>960,340,-4350;9770,340,-10</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -601,7 +606,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -636,7 +641,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -676,7 +681,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -701,7 +706,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -715,13 +720,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -735,13 +737,10 @@
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -755,10 +754,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -772,10 +771,10 @@
         <v>4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -790,7 +789,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -825,7 +824,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -865,7 +864,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -890,7 +889,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -905,10 +904,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -922,10 +921,10 @@
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -939,10 +938,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -957,7 +956,7 @@
   <dimension ref="C2:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -968,7 +967,7 @@
   <sheetData>
     <row r="2" spans="3:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="3:9" ht="15" x14ac:dyDescent="0.25">
@@ -1004,7 +1003,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -1028,7 +1027,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" s="1"/>
     </row>
@@ -1043,10 +1042,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1072,7 +1071,7 @@
   <dimension ref="C2:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1087,7 +1086,7 @@
   <sheetData>
     <row r="2" spans="3:9" x14ac:dyDescent="0.15">
       <c r="G2" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="3:9" ht="15" x14ac:dyDescent="0.25">
@@ -1123,7 +1122,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -1147,7 +1146,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" s="1"/>
     </row>
@@ -1162,10 +1161,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="1"/>
@@ -1191,7 +1190,7 @@
   <dimension ref="C2:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1202,7 +1201,7 @@
   <sheetData>
     <row r="2" spans="3:8" x14ac:dyDescent="0.15">
       <c r="G2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="3:8" ht="15" x14ac:dyDescent="0.25">
@@ -1237,7 +1236,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -1260,7 +1259,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="3:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -1274,10 +1273,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -1301,7 +1300,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1336,7 +1335,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="8"/>
@@ -1378,10 +1377,10 @@
         <v>8</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I4" s="8"/>
     </row>
@@ -1404,7 +1403,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I5" s="8"/>
     </row>
@@ -1421,13 +1420,13 @@
         <v>1</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="H6" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" s="8"/>
     </row>
@@ -1444,10 +1443,10 @@
         <v>2</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -1465,10 +1464,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -1486,10 +1485,10 @@
         <v>4</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="H9" s="8">
         <v>1</v>

--- a/Excel/AIConfig.xlsx
+++ b/Excel/AIConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C48910-0494-416B-805F-E8AA3D9E8AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600EE310-D496-4FDC-B5CC-C95BA85DB60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="1605" windowWidth="27810" windowHeight="12315" tabRatio="809" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -1544,7 +1544,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1644,10 +1644,10 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="7">
-        <v>601</v>
+        <v>701</v>
       </c>
       <c r="D6" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6" s="7">
         <v>1</v>
@@ -1666,10 +1666,10 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="7">
-        <v>602</v>
+        <v>702</v>
       </c>
       <c r="D7" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7" s="7">
         <v>2</v>
@@ -1686,10 +1686,10 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="7">
-        <v>603</v>
+        <v>703</v>
       </c>
       <c r="D8" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" s="7">
         <v>3</v>
@@ -1706,10 +1706,10 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="7">
-        <v>604</v>
+        <v>704</v>
       </c>
       <c r="D9" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9" s="7">
         <v>4</v>
@@ -1726,10 +1726,10 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="7">
-        <v>605</v>
+        <v>705</v>
       </c>
       <c r="D10" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10" s="7">
         <v>5</v>

--- a/Excel/AIConfig.xlsx
+++ b/Excel/AIConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F32185A-ACB1-41C1-B60A-429A8E135AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C48910-0494-416B-805F-E8AA3D9E8AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-510" yWindow="1125" windowWidth="27810" windowHeight="12315" tabRatio="809" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="1605" windowWidth="27810" windowHeight="12315" tabRatio="809" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="AIConfig_4" sheetId="9" r:id="rId4"/>
     <sheet name="AIConfig_5" sheetId="10" r:id="rId5"/>
     <sheet name="AIConfig_6" sheetId="11" r:id="rId6"/>
+    <sheet name="AIConfig_7" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="51">
   <si>
     <t>cs</t>
   </si>
@@ -208,7 +209,19 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>960,340,-4350;9770,340,-10</t>
+    <t>3604;0;3884@-4589;0;1100</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI_TargetRetreat</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤退</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4589;0;1100@3604;0;3884</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -303,7 +316,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -325,6 +338,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -606,7 +622,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1297,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AD5B96-31AE-4682-809D-7C33BC6C0138}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="A1:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1425,7 +1441,7 @@
       <c r="G6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="11" t="s">
         <v>47</v>
       </c>
       <c r="I6" s="8"/>
@@ -1443,12 +1459,12 @@
         <v>2</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="H7" s="11"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
@@ -1464,10 +1480,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -1485,19 +1501,291 @@
         <v>4</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="7">
+        <v>605</v>
+      </c>
+      <c r="D10" s="7">
+        <v>6</v>
+      </c>
+      <c r="E10" s="7">
+        <v>5</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="8">
-        <v>1</v>
-      </c>
-      <c r="I9" s="8"/>
+      <c r="H10" s="8">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5FA342-0A88-4F78-915B-88DB9C991B2F}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="8" max="8" width="56.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="7">
+        <v>601</v>
+      </c>
+      <c r="D6" s="7">
+        <v>6</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="7">
+        <v>602</v>
+      </c>
+      <c r="D7" s="7">
+        <v>6</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="7">
+        <v>603</v>
+      </c>
+      <c r="D8" s="7">
+        <v>6</v>
+      </c>
+      <c r="E8" s="7">
+        <v>3</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="7">
+        <v>604</v>
+      </c>
+      <c r="D9" s="7">
+        <v>6</v>
+      </c>
+      <c r="E9" s="7">
+        <v>4</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="7">
+        <v>605</v>
+      </c>
+      <c r="D10" s="7">
+        <v>6</v>
+      </c>
+      <c r="E10" s="7">
+        <v>5</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/AIConfig.xlsx
+++ b/Excel/AIConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600EE310-D496-4FDC-B5CC-C95BA85DB60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70980490-1806-4F4C-B85E-2AA082C0A2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="AIConfig_4" sheetId="9" r:id="rId4"/>
     <sheet name="AIConfig_5" sheetId="10" r:id="rId5"/>
     <sheet name="AIConfig_6" sheetId="11" r:id="rId6"/>
-    <sheet name="AIConfig_7" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="49">
   <si>
     <t>cs</t>
   </si>
@@ -209,19 +208,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3604;0;3884@-4589;0;1100</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>AI_TargetRetreat</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>撤退</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>-4589;0;1100@3604;0;3884</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1315,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AD5B96-31AE-4682-809D-7C33BC6C0138}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="A1:H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1441,9 +1432,7 @@
       <c r="G6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="H6" s="11"/>
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
@@ -1459,10 +1448,10 @@
         <v>2</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="8"/>
@@ -1537,255 +1526,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5FA342-0A88-4F78-915B-88DB9C991B2F}">
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="8" max="8" width="56.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="7">
-        <v>701</v>
-      </c>
-      <c r="D6" s="7">
-        <v>7</v>
-      </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="7">
-        <v>702</v>
-      </c>
-      <c r="D7" s="7">
-        <v>7</v>
-      </c>
-      <c r="E7" s="7">
-        <v>2</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="7">
-        <v>703</v>
-      </c>
-      <c r="D8" s="7">
-        <v>7</v>
-      </c>
-      <c r="E8" s="7">
-        <v>3</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="7">
-        <v>704</v>
-      </c>
-      <c r="D9" s="7">
-        <v>7</v>
-      </c>
-      <c r="E9" s="7">
-        <v>4</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="7">
-        <v>705</v>
-      </c>
-      <c r="D10" s="7">
-        <v>7</v>
-      </c>
-      <c r="E10" s="7">
-        <v>5</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Excel/AIConfig.xlsx
+++ b/Excel/AIConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70980490-1806-4F4C-B85E-2AA082C0A2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660DF11A-E9F8-4283-95C0-7BD7352C292C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" tabRatio="809" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="AIConfig_4" sheetId="9" r:id="rId4"/>
     <sheet name="AIConfig_5" sheetId="10" r:id="rId5"/>
     <sheet name="AIConfig_6" sheetId="11" r:id="rId6"/>
+    <sheet name="AIConfig_7" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="52">
   <si>
     <t>cs</t>
   </si>
@@ -214,13 +215,25 @@
   <si>
     <t>撤退</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI_BattleWuDi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战场无敌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#战场无敌Buff</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +288,11 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1078,7 +1096,7 @@
   <dimension ref="C2:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1197,7 +1215,7 @@
   <dimension ref="C2:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="J11" sqref="A1:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1306,7 +1324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AD5B96-31AE-4682-809D-7C33BC6C0138}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -1526,4 +1544,114 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B66E43-2889-408A-A34A-2F66C01E1D94}">
+  <dimension ref="C2:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
+    <col min="7" max="7" width="18.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="G2" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C6" s="2">
+        <v>701</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel/AIConfig.xlsx
+++ b/Excel/AIConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660DF11A-E9F8-4283-95C0-7BD7352C292C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D794BCD-03C0-456E-BFDF-30C7545D733B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" tabRatio="809" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -150,10 +150,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>AI_PetZhuiJi</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Desc</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -227,6 +223,9 @@
   <si>
     <t>#战场无敌Buff</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI_ZhuiJi</t>
   </si>
 </sst>
 </file>
@@ -293,6 +292,8 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -631,7 +632,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -706,7 +707,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -762,10 +763,10 @@
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -813,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -889,7 +890,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -946,7 +947,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>16</v>
@@ -1028,7 +1029,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -1147,7 +1148,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -1261,7 +1262,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -1284,7 +1285,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="3:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -1360,7 +1361,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="8"/>
@@ -1402,10 +1403,10 @@
         <v>8</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4" s="8"/>
     </row>
@@ -1428,7 +1429,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I5" s="8"/>
     </row>
@@ -1445,10 +1446,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="8"/>
@@ -1466,10 +1467,10 @@
         <v>2</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="8"/>
@@ -1508,10 +1509,10 @@
         <v>4</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -1529,10 +1530,10 @@
         <v>5</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H10" s="8">
         <v>1</v>
@@ -1550,8 +1551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B66E43-2889-408A-A34A-2F66C01E1D94}">
   <dimension ref="C2:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1562,7 +1563,7 @@
   <sheetData>
     <row r="2" spans="3:8" x14ac:dyDescent="0.15">
       <c r="G2" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="3:8" ht="15" x14ac:dyDescent="0.25">
@@ -1597,7 +1598,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -1620,7 +1621,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="3:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -1634,10 +1635,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="H6" s="4"/>
     </row>

--- a/Excel/AIConfig.xlsx
+++ b/Excel/AIConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D794BCD-03C0-456E-BFDF-30C7545D733B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51144A39-279E-4D4C-A450-E3B3946359DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -20,22 +20,14 @@
     <sheet name="AIConfig_5" sheetId="10" r:id="rId5"/>
     <sheet name="AIConfig_6" sheetId="11" r:id="rId6"/>
     <sheet name="AIConfig_7" sheetId="12" r:id="rId7"/>
+    <sheet name="AIConfig_8" sheetId="13" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="54">
   <si>
     <t>cs</t>
   </si>
@@ -226,6 +218,13 @@
   </si>
   <si>
     <t>AI_ZhuiJi</t>
+  </si>
+  <si>
+    <t>#自爆怪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自爆怪</t>
   </si>
 </sst>
 </file>
@@ -326,7 +325,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -337,7 +336,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -814,7 +812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -949,7 +947,7 @@
       <c r="F7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1331,13 +1329,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="9" style="9"/>
-    <col min="4" max="4" width="17" style="9" customWidth="1"/>
-    <col min="5" max="5" width="9" style="9"/>
-    <col min="6" max="6" width="20.875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="19.25" style="9" customWidth="1"/>
-    <col min="8" max="8" width="30.125" style="9" customWidth="1"/>
-    <col min="9" max="10" width="9" style="9"/>
+    <col min="3" max="3" width="9" style="8"/>
+    <col min="4" max="4" width="17" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9" style="8"/>
+    <col min="6" max="6" width="20.875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="19.25" style="8" customWidth="1"/>
+    <col min="8" max="8" width="30.125" style="8" customWidth="1"/>
+    <col min="9" max="10" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -1345,200 +1343,200 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="8"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="8"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="8"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="10" t="s">
+      <c r="C5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="8"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>601</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>6</v>
       </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="8"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>602</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>6</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>2</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="8"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>603</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>6</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>3</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>604</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>6</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>4</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>605</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>6</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>5</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="8">
-        <v>1</v>
-      </c>
-      <c r="I10" s="8"/>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -1552,7 +1550,7 @@
   <dimension ref="C2:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1655,4 +1653,114 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368E71F2-FD4A-488F-A423-F2BA74D172BC}">
+  <dimension ref="C2:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="23.25" customWidth="1"/>
+    <col min="7" max="7" width="24.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="G2" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C6" s="2">
+        <v>801</v>
+      </c>
+      <c r="D6" s="2">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/AIConfig.xlsx
+++ b/Excel/AIConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51144A39-279E-4D4C-A450-E3B3946359DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA44225B-2D1B-4569-8D1D-6C6E0385032F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="345" windowWidth="24990" windowHeight="14145" tabRatio="809" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="52">
   <si>
     <t>cs</t>
   </si>
@@ -66,12 +66,6 @@
   </si>
   <si>
     <t>攻击</t>
-  </si>
-  <si>
-    <t>AI_XunLuo</t>
-  </si>
-  <si>
-    <t>巡逻</t>
   </si>
   <si>
     <t>AI_ZhuiJi</t>
@@ -224,7 +218,8 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>自爆怪</t>
+    <t>AI_XunLuo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -630,7 +625,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -665,7 +660,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -705,7 +700,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -744,10 +739,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -761,10 +756,10 @@
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -778,10 +773,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -795,7 +790,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>12</v>
@@ -813,7 +808,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="H17" sqref="A6:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -848,7 +843,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -888,7 +883,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -928,10 +923,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -945,10 +940,10 @@
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -962,10 +957,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -991,7 +986,7 @@
   <sheetData>
     <row r="2" spans="3:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="3:9" ht="15" x14ac:dyDescent="0.25">
@@ -1027,7 +1022,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -1066,10 +1061,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1110,7 +1105,7 @@
   <sheetData>
     <row r="2" spans="3:9" x14ac:dyDescent="0.15">
       <c r="G2" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="3:9" ht="15" x14ac:dyDescent="0.25">
@@ -1146,7 +1141,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -1185,10 +1180,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="1"/>
@@ -1214,7 +1209,7 @@
   <dimension ref="C2:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="A1:J11"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1225,7 +1220,7 @@
   <sheetData>
     <row r="2" spans="3:8" x14ac:dyDescent="0.15">
       <c r="G2" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="3:8" ht="15" x14ac:dyDescent="0.25">
@@ -1260,7 +1255,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -1283,7 +1278,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="3:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -1297,10 +1292,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -1359,7 +1354,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -1401,10 +1396,10 @@
         <v>8</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I4" s="7"/>
     </row>
@@ -1427,7 +1422,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I5" s="7"/>
     </row>
@@ -1444,10 +1439,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="7"/>
@@ -1465,10 +1460,10 @@
         <v>2</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="7"/>
@@ -1486,10 +1481,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -1507,10 +1502,10 @@
         <v>4</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -1528,10 +1523,10 @@
         <v>5</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1561,7 +1556,7 @@
   <sheetData>
     <row r="2" spans="3:8" x14ac:dyDescent="0.15">
       <c r="G2" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="3:8" ht="15" x14ac:dyDescent="0.25">
@@ -1596,7 +1591,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -1619,7 +1614,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="3:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -1633,10 +1628,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -1657,10 +1652,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368E71F2-FD4A-488F-A423-F2BA74D172BC}">
-  <dimension ref="C2:H7"/>
+  <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1670,12 +1665,12 @@
     <col min="7" max="7" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="G2" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="3:8" ht="15" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1693,7 +1688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1707,13 +1702,13 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1730,11 +1725,14 @@
         <v>11</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" ht="16.5" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="2">
+        <f>D6*100+E6</f>
         <v>801</v>
       </c>
       <c r="D6" s="2">
@@ -1744,20 +1742,142 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <v>802</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1">
+        <v>803</v>
+      </c>
+      <c r="D8" s="2">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Excel/AIConfig.xlsx
+++ b/Excel/AIConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA44225B-2D1B-4569-8D1D-6C6E0385032F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C587CCC2-AC07-4803-AFE1-BE4E0002E47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="345" windowWidth="24990" windowHeight="14145" tabRatio="809" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="AIConfig_6" sheetId="11" r:id="rId6"/>
     <sheet name="AIConfig_7" sheetId="12" r:id="rId7"/>
     <sheet name="AIConfig_8" sheetId="13" r:id="rId8"/>
+    <sheet name="AIConfig_9" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="53">
   <si>
     <t>cs</t>
   </si>
@@ -219,6 +220,10 @@
   </si>
   <si>
     <t>AI_XunLuo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉怪</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -625,7 +630,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H19" sqref="A1:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1655,7 +1660,7 @@
   <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1883,4 +1888,131 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4043CAC2-A7F1-4188-AE28-EB962FD86881}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2">
+        <v>901</v>
+      </c>
+      <c r="D6" s="2">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/AIConfig.xlsx
+++ b/Excel/AIConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C587CCC2-AC07-4803-AFE1-BE4E0002E47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCA9F13-12A6-417E-A35E-EBE128237F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2115" yWindow="450" windowWidth="25140" windowHeight="14340" tabRatio="809" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="56">
   <si>
     <t>cs</t>
   </si>
@@ -224,6 +224,18 @@
   </si>
   <si>
     <t>拉怪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI_Pull</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换AI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI_Transfer</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1324,7 +1336,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1659,7 +1671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368E71F2-FD4A-488F-A423-F2BA74D172BC}">
   <dimension ref="A2:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -1892,10 +1904,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4043CAC2-A7F1-4188-AE28-EB962FD86881}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1903,7 +1915,7 @@
     <col min="6" max="6" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1915,7 +1927,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1927,7 +1939,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -1947,7 +1959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
@@ -1969,7 +1981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
@@ -1991,7 +2003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2">
@@ -2004,12 +2016,36 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>52</v>
       </c>
       <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2">
+        <v>902</v>
+      </c>
+      <c r="D7" s="2">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Excel/AIConfig.xlsx
+++ b/Excel/AIConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCA9F13-12A6-417E-A35E-EBE128237F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4A3BE1-7F20-4699-B4BA-41A30E918EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="450" windowWidth="25140" windowHeight="14340" tabRatio="809" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="AIConfig_7" sheetId="12" r:id="rId7"/>
     <sheet name="AIConfig_8" sheetId="13" r:id="rId8"/>
     <sheet name="AIConfig_9" sheetId="14" r:id="rId9"/>
+    <sheet name="AIConfig_10" sheetId="15" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="57">
   <si>
     <t>cs</t>
   </si>
@@ -236,6 +237,10 @@
   </si>
   <si>
     <t>AI_Transfer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI_JingLing</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -820,12 +825,313 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4E3717-8180-4118-B0C0-6C07565B368B}">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="6" max="6" width="23.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2">
+        <v>1001</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="A6:H17"/>
+      <selection activeCell="K24" sqref="A1:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1906,7 +2212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4043CAC2-A7F1-4188-AE28-EB962FD86881}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>

--- a/Excel/AIConfig.xlsx
+++ b/Excel/AIConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4A3BE1-7F20-4699-B4BA-41A30E918EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50AF29E-73B9-443B-8D02-459CAAB35F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27570" yWindow="870" windowWidth="26610" windowHeight="14085" tabRatio="809" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -830,7 +830,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/AIConfig.xlsx
+++ b/Excel/AIConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50AF29E-73B9-443B-8D02-459CAAB35F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A28D8F-AD4E-4A4C-AB72-31E8754D693D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27570" yWindow="870" windowWidth="26610" windowHeight="14085" tabRatio="809" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="AIConfig_8" sheetId="13" r:id="rId8"/>
     <sheet name="AIConfig_9" sheetId="14" r:id="rId9"/>
     <sheet name="AIConfig_10" sheetId="15" r:id="rId10"/>
+    <sheet name="AIConfig_11" sheetId="16" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="59">
   <si>
     <t>cs</t>
   </si>
@@ -241,6 +242,14 @@
   </si>
   <si>
     <t>AI_JingLing</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI_Pasture</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#牧场</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -829,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4E3717-8180-4118-B0C0-6C07565B368B}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="A1:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -959,6 +968,305 @@
       <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B8D31C-589C-4488-8E75-BAD582E9A7C3}">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="6" max="6" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2">
+        <v>1101</v>
+      </c>
+      <c r="D6" s="2">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>

--- a/Excel/AIConfig.xlsx
+++ b/Excel/AIConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A28D8F-AD4E-4A4C-AB72-31E8754D693D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612CAEB0-8479-45B4-BCFC-70FE4F5853E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1140,7 +1140,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/AIConfig.xlsx
+++ b/Excel/AIConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612CAEB0-8479-45B4-BCFC-70FE4F5853E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0DB99C-54A7-4FDC-91B1-4CE4882DC18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -24,13 +24,14 @@
     <sheet name="AIConfig_9" sheetId="14" r:id="rId9"/>
     <sheet name="AIConfig_10" sheetId="15" r:id="rId10"/>
     <sheet name="AIConfig_11" sheetId="16" r:id="rId11"/>
+    <sheet name="AIConfig_12" sheetId="17" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="62">
   <si>
     <t>cs</t>
   </si>
@@ -250,6 +251,18 @@
   </si>
   <si>
     <t>#牧场</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#单人副本怪物</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI_LocalDungeon</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -257,7 +270,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +332,11 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -656,7 +674,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="A1:H19"/>
+      <selection activeCell="I25" sqref="A1:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1139,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B8D31C-589C-4488-8E75-BAD582E9A7C3}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1434,12 +1452,385 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A522AFDD-BE14-42E9-BD5E-34F491D70139}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2">
+        <v>1201</v>
+      </c>
+      <c r="D6" s="2">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2">
+        <v>1202</v>
+      </c>
+      <c r="D7" s="2">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2">
+        <v>1203</v>
+      </c>
+      <c r="D8" s="2">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2">
+        <v>1204</v>
+      </c>
+      <c r="D9" s="2">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="A1:K24"/>
+      <selection activeCell="B6" sqref="B6:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/AIConfig.xlsx
+++ b/Excel/AIConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0DB99C-54A7-4FDC-91B1-4CE4882DC18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DC5606-F810-4DE8-BBC2-948A6F1BBB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -25,13 +25,14 @@
     <sheet name="AIConfig_10" sheetId="15" r:id="rId10"/>
     <sheet name="AIConfig_11" sheetId="16" r:id="rId11"/>
     <sheet name="AIConfig_12" sheetId="17" r:id="rId12"/>
+    <sheet name="AIConfig_13" sheetId="18" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="64">
   <si>
     <t>cs</t>
   </si>
@@ -263,6 +264,14 @@
   </si>
   <si>
     <t>AI_LocalDungeon</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#小龟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI_Turtle</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -337,6 +346,8 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1158,7 +1169,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+      <selection activeCell="N19" sqref="A1:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1456,8 +1467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A522AFDD-BE14-42E9-BD5E-34F491D70139}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1821,6 +1832,305 @@
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E117C4F6-7708-4489-B8E5-8E6F55ED89A9}">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2">
+        <v>1301</v>
+      </c>
+      <c r="D6" s="2">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Excel/AIConfig.xlsx
+++ b/Excel/AIConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DC5606-F810-4DE8-BBC2-948A6F1BBB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744B2A52-B577-4EC5-A15C-AFBA50C8A87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="65">
   <si>
     <t>cs</t>
   </si>
@@ -272,6 +272,10 @@
   </si>
   <si>
     <t>AI_Turtle</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#宠物+召唤怪</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1840,7 +1844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E117C4F6-7708-4489-B8E5-8E6F55ED89A9}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -2139,8 +2143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2150,7 +2154,7 @@
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
@@ -2175,7 +2179,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="H2" s="2"/>
     </row>

--- a/Excel/AIConfig.xlsx
+++ b/Excel/AIConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744B2A52-B577-4EC5-A15C-AFBA50C8A87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D34481-B498-49DE-A4F0-4A9095D942A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -137,10 +137,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>#特殊AI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Desc</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -276,6 +272,10 @@
   </si>
   <si>
     <t>#宠物+召唤怪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#自爆怪 陷阱怪</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -764,7 +764,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -803,7 +803,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>19</v>
@@ -820,10 +820,10 @@
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -949,7 +949,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -996,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>17</v>
@@ -1204,7 +1204,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="1"/>
@@ -1250,7 +1250,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -1297,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="1"/>
@@ -1502,7 +1502,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="1"/>
@@ -1544,7 +1544,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -1587,10 +1587,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1608,10 +1608,10 @@
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1876,7 +1876,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="1"/>
@@ -1922,7 +1922,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -1969,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="1"/>
@@ -2143,8 +2143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2179,7 +2179,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -2219,7 +2219,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -2276,7 +2276,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>14</v>
@@ -2358,7 +2358,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -2477,7 +2477,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -2544,8 +2544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6C681F-301E-48C9-8DD9-403AA4B83BF9}">
   <dimension ref="C2:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2556,7 +2556,7 @@
   <sheetData>
     <row r="2" spans="3:8" x14ac:dyDescent="0.15">
       <c r="G2" s="5" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="3:8" ht="15" x14ac:dyDescent="0.25">
@@ -2591,7 +2591,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -2614,7 +2614,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="3:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -2690,7 +2690,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -2732,10 +2732,10 @@
         <v>8</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" s="7"/>
     </row>
@@ -2758,7 +2758,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="7"/>
     </row>
@@ -2775,10 +2775,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="7"/>
@@ -2796,10 +2796,10 @@
         <v>2</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="7"/>
@@ -2838,10 +2838,10 @@
         <v>4</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -2859,10 +2859,10 @@
         <v>5</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2892,7 +2892,7 @@
   <sheetData>
     <row r="2" spans="3:8" x14ac:dyDescent="0.15">
       <c r="G2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="3:8" ht="15" x14ac:dyDescent="0.25">
@@ -2927,7 +2927,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -2950,7 +2950,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="3:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -2964,10 +2964,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -3003,7 +3003,7 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="G2" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -3038,7 +3038,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -3061,7 +3061,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -3078,7 +3078,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>19</v>
@@ -3098,7 +3098,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>14</v>
@@ -3294,7 +3294,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -3335,10 +3335,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -3355,10 +3355,10 @@
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
